--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F0C8E-A6ED-4D2E-8C5D-37C72492ACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635CF70-11A1-4A77-AEB9-D9D697D16134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Columna</t>
   </si>
@@ -102,6 +102,81 @@
   </si>
   <si>
     <t>Título de la historia alternativo a la descripción, que servirá para identificar más fácilmente la historia sin tener que repetir todo su enunciado. Se puede utilizar por ejemplo el nombre de la funcionalidad o requerimiento que se pretende desarrollar.</t>
+  </si>
+  <si>
+    <t>HU001</t>
+  </si>
+  <si>
+    <t>HU002</t>
+  </si>
+  <si>
+    <t>HU003</t>
+  </si>
+  <si>
+    <t>HU004</t>
+  </si>
+  <si>
+    <t>HU005</t>
+  </si>
+  <si>
+    <t>HU006</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder crear cuentas de usuario, con la finalidad de gestionar el acceso al sistema.</t>
+  </si>
+  <si>
+    <t>Crear Cuenta de Usuario</t>
+  </si>
+  <si>
+    <t>Por hacer</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder modificar cuentas de usuario, con la finalidad de actualizar la información de los usuarios.</t>
+  </si>
+  <si>
+    <t>Modificar Cuenta de Usuario</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder eliminar cuentas de usuario, con la finalidad de mantener el sistema actualizado y seguro.</t>
+  </si>
+  <si>
+    <t>Eliminar Cuenta de Usuario</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder crear roles de usuario, con la finalidad de asignar permisos específicos a diferentes usuarios.</t>
+  </si>
+  <si>
+    <t>Crear Rol de Usuario</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder modificar roles de usuario, con la finalidad de ajustar los permisos según las necesidades del negocio.</t>
+  </si>
+  <si>
+    <t>Modificar Rol de Usuario</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder eliminar roles de usuario, con la finalidad de mantener la estructura de roles actualizada.</t>
+  </si>
+  <si>
+    <t>Eliminar Rol de Usuario</t>
   </si>
 </sst>
 </file>
@@ -505,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,86 +635,146 @@
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635CF70-11A1-4A77-AEB9-D9D697D16134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFFE31D-2EAF-474A-B790-E5E80E37E0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>Columna</t>
   </si>
@@ -178,12 +178,78 @@
   <si>
     <t>Eliminar Rol de Usuario</t>
   </si>
+  <si>
+    <t>HU007</t>
+  </si>
+  <si>
+    <t>HU008</t>
+  </si>
+  <si>
+    <t>HU009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito registrar nuevos ítems en el inventario, con la finalidad de mantener actualizado el estado del inventario.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar ítems en el inventario	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito modificar los ítems existentes en el inventario, con la finalidad de corregir errores o ajustar cantidades.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar ítems en el inventario	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito eliminar ítems del inventario, con la finalidad de remover ítems que ya no son necesarios o están en exceso.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar ítems del inventario	</t>
+  </si>
+  <si>
+    <t>HU010</t>
+  </si>
+  <si>
+    <t>HU011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito marcar las etapas de producción como completadas, con la finalidad de actualizar el progreso de la producción.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcar etapas de producción	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito gestionar el estado de la producción en tiempo real, con la finalidad de mantener la producción en marcha y resolver problemas rápidamente.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar estado de producción	</t>
+  </si>
+  <si>
+    <t>HU012</t>
+  </si>
+  <si>
+    <t>HU013</t>
+  </si>
+  <si>
+    <t>Como un Jefe de Planta, necesito notificar inconvenientes en la producción, con la finalidad de actualizar el sistema con la cantidad adicional de materia prima utilizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Jefe de Planta, necesito actualizar el inventario en tiempo real tras notificar un inconveniente, con la finalidad de reflejar el uso adicional de materia prima.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificar inconvenientes en producción	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar inventario tras notificación	</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +276,12 @@
       <b/>
       <sz val="16"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -578,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I18"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,102 +849,172 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -889,7 +1031,50 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Octavo Semestre\Aplicaciones Informaticas II\Proyecto_Aplicaciones_Informaticas_II\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFFE31D-2EAF-474A-B790-E5E80E37E0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C1BC7-8D25-4749-8E4A-7645954BB5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
   <si>
     <t>Columna</t>
   </si>
@@ -243,6 +243,90 @@
   </si>
   <si>
     <t xml:space="preserve">Actualizar inventario tras notificación	</t>
+  </si>
+  <si>
+    <t>HU014</t>
+  </si>
+  <si>
+    <t>HU015</t>
+  </si>
+  <si>
+    <t>Prediccion de Inventario</t>
+  </si>
+  <si>
+    <t>Gestion de Produccion Diaria</t>
+  </si>
+  <si>
+    <t>Generacion de informes</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Como Gerente, quiero utilizar  predicción para anticipar las necesidades de materia prima y evitar interrupciones en la producción.</t>
+  </si>
+  <si>
+    <t>Como Gerente, quiero monitorear  el progreso de la producción diaria para asegurarme de que los objetivos de producción se cumplan de manera eficiente.</t>
+  </si>
+  <si>
+    <t>Como Gerente, quiero generar informes detallados sobre la producción e inventario para identificar tendencias y hacer ajustes estratégicos.</t>
+  </si>
+  <si>
+    <t>HT001</t>
+  </si>
+  <si>
+    <t>Modelo de Prediccion</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Como Equipo, queremos seleccionar e implementar herramientas de predicción (por ejemplo, librerías de machine learning como TensorFlow o Scikit-learn) para mejorar la precisión en la predicción de necesidades de inventario.</t>
+  </si>
+  <si>
+    <t>Evaluar diferentes herramientas de predicción disponibles y seleccionar la más adecuada.</t>
+  </si>
+  <si>
+    <t>HT002</t>
+  </si>
+  <si>
+    <t>Como Equipo, queremos diseñar y configurar la base de datos para almacenar de manera eficiente los datos de inventario y producción, asegurando su integridad y disponibilidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creación y Configuración de la Base de Datos</t>
+  </si>
+  <si>
+    <t>Diseñar el esquema de la base de datos según los requisitos del sistema.</t>
+  </si>
+  <si>
+    <t>HT003</t>
+  </si>
+  <si>
+    <t>Como equipo, queremos implementar un sistema de control de versiones (por ejemplo, Git) para gestionar el código fuente y colaborar eficientemente en el desarrollo del proyecto.</t>
+  </si>
+  <si>
+    <t>Implementación de Sistema de Control de Versiones</t>
+  </si>
+  <si>
+    <t>Configurar un repositorio central para el proyecto.</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>HT004</t>
+  </si>
+  <si>
+    <t>Como arquitectos del sistema, queremos diseñar la arquitectura del sistema para que sea escalable y pueda manejar incrementos en la carga de trabajo.</t>
+  </si>
+  <si>
+    <t>Diseño para Escalabilidad</t>
+  </si>
+  <si>
+    <t>Diseñar la arquitectura del sistema para soportar escalabilidad horizontal y vertical.</t>
   </si>
 </sst>
 </file>
@@ -334,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -345,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,36 +737,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.1796875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
     </row>
-    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -705,7 +792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -729,7 +816,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
@@ -753,7 +840,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
@@ -777,7 +864,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
@@ -801,7 +888,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
@@ -825,7 +912,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
@@ -849,7 +936,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
@@ -873,7 +960,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
@@ -897,7 +984,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
@@ -921,7 +1008,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
@@ -945,7 +1032,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
@@ -969,7 +1056,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
@@ -993,7 +1080,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
@@ -1017,61 +1104,195 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1084,30 +1305,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="2.81640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1123,7 +1344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1139,7 +1360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1155,7 +1376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Octavo Semestre\Aplicaciones Informaticas II\Proyecto_Aplicaciones_Informaticas_II\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C1BC7-8D25-4749-8E4A-7645954BB5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259095D2-EB39-4CD2-A0EA-2D08C194E742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>Columna</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Medio</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
     <t>Como un Administrador, necesito poder modificar cuentas de usuario, con la finalidad de actualizar la información de los usuarios.</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Alto</t>
   </si>
   <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
   </si>
   <si>
     <t>Eliminar Cuenta de Usuario</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
   </si>
   <si>
     <t>Como un Administrador, necesito poder crear roles de usuario, con la finalidad de asignar permisos específicos a diferentes usuarios.</t>
@@ -739,34 +730,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.7265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.1796875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4"/>
     </row>
-    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -792,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -809,46 +800,46 @@
         <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
@@ -857,70 +848,70 @@
         <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>31</v>
@@ -929,22 +920,22 @@
         <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>31</v>
@@ -953,22 +944,22 @@
         <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>31</v>
@@ -977,22 +968,22 @@
         <v>32</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>31</v>
@@ -1001,22 +992,22 @@
         <v>32</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
@@ -1025,262 +1016,262 @@
         <v>32</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
+      <c r="C19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="H21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
+      <c r="E22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="5" t="s">
+    </row>
+    <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
@@ -1309,26 +1300,26 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.81640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="2.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1344,7 +1335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1352,7 +1343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1360,7 +1351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="225" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +1383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259095D2-EB39-4CD2-A0EA-2D08C194E742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5C93E-0337-44A4-B174-84C48111C1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>Columna</t>
   </si>
@@ -131,18 +131,12 @@
     <t>Por hacer</t>
   </si>
   <si>
-    <t>Medio</t>
-  </si>
-  <si>
     <t>Como un Administrador, necesito poder modificar cuentas de usuario, con la finalidad de actualizar la información de los usuarios.</t>
   </si>
   <si>
     <t>Modificar Cuenta de Usuario</t>
   </si>
   <si>
-    <t>Alto</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t xml:space="preserve">Registrar ítems en el inventario	</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint </t>
-  </si>
-  <si>
     <t xml:space="preserve">Como un Jefe de Planta, necesito modificar los ítems existentes en el inventario, con la finalidad de corregir errores o ajustar cantidades.	</t>
   </si>
   <si>
@@ -251,9 +242,6 @@
     <t>Generacion de informes</t>
   </si>
   <si>
-    <t>Bajo</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -272,9 +260,6 @@
     <t>Modelo de Prediccion</t>
   </si>
   <si>
-    <t>Sprint</t>
-  </si>
-  <si>
     <t>Como Equipo, queremos seleccionar e implementar herramientas de predicción (por ejemplo, librerías de machine learning como TensorFlow o Scikit-learn) para mejorar la precisión en la predicción de necesidades de inventario.</t>
   </si>
   <si>
@@ -318,6 +303,24 @@
   </si>
   <si>
     <t>Diseñar la arquitectura del sistema para soportar escalabilidad horizontal y vertical.</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
   </si>
 </sst>
 </file>
@@ -730,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,14 +799,14 @@
       <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
+      <c r="F5" s="5">
+        <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -812,22 +815,22 @@
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
+      <c r="F6" s="5">
+        <v>7</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -836,22 +839,22 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>32</v>
+      <c r="F7" s="5">
+        <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="5"/>
     </row>
@@ -860,22 +863,22 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
+      <c r="F8" s="5">
+        <v>8</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -884,22 +887,22 @@
         <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>35</v>
+      <c r="F9" s="5">
+        <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -908,367 +911,367 @@
         <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>32</v>
+      <c r="F10" s="5">
+        <v>7</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
+      <c r="F11" s="5">
+        <v>10</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>32</v>
+      <c r="F12" s="5">
+        <v>10</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>32</v>
+      <c r="F13" s="5">
+        <v>10</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>32</v>
+      <c r="F14" s="5">
+        <v>10</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>35</v>
+      <c r="F15" s="5">
+        <v>10</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>35</v>
+      <c r="F16" s="5">
+        <v>5</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>35</v>
+      <c r="F17" s="5">
+        <v>5</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>35</v>
+      <c r="F18" s="5">
+        <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>35</v>
+      <c r="F19" s="5">
+        <v>10</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>72</v>
+      <c r="F20" s="5">
+        <v>5</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>35</v>
+      <c r="F21" s="5">
+        <v>15</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>35</v>
+      <c r="F22" s="5">
+        <v>9</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>32</v>
+        <v>85</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -1297,7 +1300,7 @@
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5C93E-0337-44A4-B174-84C48111C1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CE5AD-3785-4C3D-AFF4-9E66BB2CA5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
   <si>
     <t>Columna</t>
   </si>
@@ -321,6 +321,24 @@
   </si>
   <si>
     <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>7 horas</t>
+  </si>
+  <si>
+    <t>8 horas</t>
+  </si>
+  <si>
+    <t>15 horas</t>
+  </si>
+  <si>
+    <t>10 horas</t>
+  </si>
+  <si>
+    <t>5 horas</t>
+  </si>
+  <si>
+    <t>9 horas</t>
   </si>
 </sst>
 </file>
@@ -734,7 +752,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,8 +817,8 @@
       <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5">
-        <v>7</v>
+      <c r="F5" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>90</v>
@@ -823,8 +841,8 @@
       <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5">
-        <v>7</v>
+      <c r="F6" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>90</v>
@@ -847,8 +865,8 @@
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5">
-        <v>7</v>
+      <c r="F7" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>90</v>
@@ -871,8 +889,8 @@
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5">
-        <v>8</v>
+      <c r="F8" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>91</v>
@@ -895,8 +913,8 @@
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5">
-        <v>15</v>
+      <c r="F9" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>91</v>
@@ -919,8 +937,8 @@
       <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="5">
-        <v>7</v>
+      <c r="F10" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>91</v>
@@ -943,8 +961,8 @@
       <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="5">
-        <v>10</v>
+      <c r="F11" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>93</v>
@@ -967,8 +985,8 @@
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="5">
-        <v>10</v>
+      <c r="F12" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>93</v>
@@ -991,8 +1009,8 @@
       <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="5">
-        <v>10</v>
+      <c r="F13" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>93</v>
@@ -1015,8 +1033,8 @@
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="5">
-        <v>10</v>
+      <c r="F14" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>94</v>
@@ -1039,8 +1057,8 @@
       <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="5">
-        <v>10</v>
+      <c r="F15" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>94</v>
@@ -1063,8 +1081,8 @@
       <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="5">
-        <v>5</v>
+      <c r="F16" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>94</v>
@@ -1087,8 +1105,8 @@
       <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5">
-        <v>5</v>
+      <c r="F17" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>95</v>
@@ -1111,8 +1129,8 @@
       <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="5">
-        <v>15</v>
+      <c r="F18" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>95</v>
@@ -1135,8 +1153,8 @@
       <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="5">
-        <v>10</v>
+      <c r="F19" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>95</v>
@@ -1159,8 +1177,8 @@
       <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="5">
-        <v>5</v>
+      <c r="F20" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>94</v>
@@ -1183,8 +1201,8 @@
       <c r="E21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="5">
-        <v>15</v>
+      <c r="F21" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>92</v>
@@ -1209,8 +1227,8 @@
       <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="5">
-        <v>9</v>
+      <c r="F22" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>90</v>
@@ -1235,8 +1253,8 @@
       <c r="E23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="5">
-        <v>5</v>
+      <c r="F23" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>92</v>
@@ -1261,8 +1279,8 @@
       <c r="E24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="5">
-        <v>10</v>
+      <c r="F24" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>92</v>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CE5AD-3785-4C3D-AFF4-9E66BB2CA5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7213C44-C9E9-479F-ABBB-83A8B34768E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -749,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,22 +806,22 @@
     </row>
     <row r="5" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>34</v>
@@ -830,22 +830,22 @@
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>34</v>
@@ -854,13 +854,13 @@
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
@@ -869,7 +869,7 @@
         <v>96</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>34</v>
@@ -878,22 +878,22 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>34</v>
@@ -902,22 +902,22 @@
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>34</v>
@@ -926,109 +926,115 @@
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
@@ -1037,22 +1043,24 @@
         <v>99</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>31</v>
@@ -1061,7 +1069,7 @@
         <v>99</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>34</v>
@@ -1070,22 +1078,22 @@
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>34</v>
@@ -1094,22 +1102,22 @@
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>34</v>
@@ -1118,22 +1126,22 @@
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>34</v>
@@ -1142,13 +1150,13 @@
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>31</v>
@@ -1157,7 +1165,7 @@
         <v>99</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>34</v>
@@ -1166,13 +1174,13 @@
     </row>
     <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>31</v>
@@ -1184,97 +1192,91 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>31</v>
@@ -1283,28 +1285,26 @@
         <v>99</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7213C44-C9E9-479F-ABBB-83A8B34768E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0BB62-9C16-454E-B665-ABC6CA0B2730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="102">
   <si>
     <t>Columna</t>
   </si>
@@ -323,22 +323,22 @@
     <t>Sprint 6</t>
   </si>
   <si>
-    <t>7 horas</t>
-  </si>
-  <si>
-    <t>8 horas</t>
-  </si>
-  <si>
-    <t>15 horas</t>
-  </si>
-  <si>
-    <t>10 horas</t>
-  </si>
-  <si>
-    <t>5 horas</t>
-  </si>
-  <si>
-    <t>9 horas</t>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <t>Documentacion</t>
+  </si>
+  <si>
+    <t>HT00</t>
+  </si>
+  <si>
+    <t>Documentar</t>
+  </si>
+  <si>
+    <t>Documentacion inicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentacion </t>
   </si>
 </sst>
 </file>
@@ -749,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I29"/>
+  <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,10 +818,10 @@
         <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>34</v>
@@ -842,10 +842,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>34</v>
@@ -869,7 +869,7 @@
         <v>96</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>34</v>
@@ -878,13 +878,13 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>31</v>
@@ -896,19 +896,21 @@
         <v>90</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>31</v>
@@ -917,7 +919,7 @@
         <v>96</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>34</v>
@@ -926,121 +928,119 @@
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>92</v>
@@ -1049,99 +1049,105 @@
         <v>34</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>34</v>
@@ -1150,22 +1156,22 @@
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>34</v>
@@ -1174,22 +1180,22 @@
     </row>
     <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>34</v>
@@ -1198,46 +1204,48 @@
     </row>
     <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>72</v>
+        <v>98</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>34</v>
@@ -1246,22 +1254,22 @@
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>34</v>
@@ -1270,41 +1278,189 @@
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="E30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+      <c r="H30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0BB62-9C16-454E-B665-ABC6CA0B2730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3272DF7A-DD3D-4FDF-8C57-3812B72C503F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3272DF7A-DD3D-4FDF-8C57-3812B72C503F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB79A5C-3489-46C4-87E9-EC16A126319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="103">
   <si>
     <t>Columna</t>
   </si>
@@ -340,12 +340,15 @@
   <si>
     <t xml:space="preserve">Documentacion </t>
   </si>
+  <si>
+    <t>Eleccion y definicion del tema</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +381,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -444,6 +453,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I34"/>
+  <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,288 +820,154 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="H14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>31</v>
@@ -1095,14 +976,12 @@
         <v>96</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
@@ -1121,24 +1000,24 @@
         <v>96</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>31</v>
@@ -1147,7 +1026,7 @@
         <v>96</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>34</v>
@@ -1156,13 +1035,13 @@
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>31</v>
@@ -1171,7 +1050,7 @@
         <v>96</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>34</v>
@@ -1180,13 +1059,13 @@
     </row>
     <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>31</v>
@@ -1195,22 +1074,24 @@
         <v>96</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>31</v>
@@ -1219,24 +1100,22 @@
         <v>96</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>31</v>
@@ -1245,22 +1124,24 @@
         <v>96</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>31</v>
@@ -1269,46 +1150,50 @@
         <v>96</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>31</v>
@@ -1317,12 +1202,14 @@
         <v>96</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -1341,7 +1228,7 @@
         <v>96</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>69</v>
@@ -1352,13 +1239,13 @@
     </row>
     <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>31</v>
@@ -1367,7 +1254,7 @@
         <v>96</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>34</v>
@@ -1376,13 +1263,13 @@
     </row>
     <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>31</v>
@@ -1391,7 +1278,7 @@
         <v>96</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>34</v>
@@ -1400,13 +1287,13 @@
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>31</v>
@@ -1415,7 +1302,7 @@
         <v>96</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>34</v>
@@ -1439,7 +1326,7 @@
         <v>96</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>69</v>
@@ -1448,19 +1335,239 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB79A5C-3489-46C4-87E9-EC16A126319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE9B85-7334-4A5A-A095-C6F8A9295EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="104">
   <si>
     <t>Columna</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Eleccion y definicion del tema</t>
+  </si>
+  <si>
+    <t>Desarrollo del alcance del proyecto</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -457,7 +460,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,7 +773,7 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +839,9 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE9B85-7334-4A5A-A095-C6F8A9295EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6421577-5998-46F1-8354-3008FCB8E4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="118">
   <si>
     <t>Columna</t>
   </si>
@@ -345,6 +345,48 @@
   </si>
   <si>
     <t>Desarrollo del alcance del proyecto</t>
+  </si>
+  <si>
+    <t>Especificacion de los casos de uso</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Historias de usuario</t>
+  </si>
+  <si>
+    <t>Desarrollo de las Historias de usuario</t>
+  </si>
+  <si>
+    <t>Elaboracion del Product Backlog</t>
+  </si>
+  <si>
+    <t>Desarrollo del diseño de la base de datos</t>
+  </si>
+  <si>
+    <t>Implementacion de la capa de acceso a datos</t>
+  </si>
+  <si>
+    <t>Definir tema</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t>Diseño base de datos</t>
+  </si>
+  <si>
+    <t>Capa de acceso a datos</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
   </si>
 </sst>
 </file>
@@ -773,7 +815,7 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +824,7 @@
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
@@ -826,82 +868,176 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -911,7 +1047,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6421577-5998-46F1-8354-3008FCB8E4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072FF4B-3230-47CB-BF32-F6172FCE4498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="117">
   <si>
     <t>Columna</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>Realizado</t>
-  </si>
-  <si>
-    <t>Sprint 7</t>
   </si>
 </sst>
 </file>
@@ -812,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I43"/>
+  <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>34</v>
@@ -1028,42 +1025,70 @@
         <v>4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
@@ -1072,22 +1097,22 @@
         <v>96</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>31</v>
@@ -1096,22 +1121,24 @@
         <v>96</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>31</v>
@@ -1119,9 +1146,7 @@
       <c r="F16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1129,13 +1154,13 @@
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>31</v>
@@ -1143,25 +1168,21 @@
       <c r="F17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>100</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>31</v>
@@ -1169,23 +1190,23 @@
       <c r="F18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>31</v>
@@ -1193,23 +1214,21 @@
       <c r="F19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>31</v>
@@ -1217,25 +1236,23 @@
       <c r="F20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>31</v>
@@ -1243,49 +1260,47 @@
       <c r="F21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>31</v>
@@ -1293,51 +1308,47 @@
       <c r="F23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>31</v>
@@ -1345,25 +1356,21 @@
       <c r="F25" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>31</v>
@@ -1371,25 +1378,21 @@
       <c r="F26" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>31</v>
@@ -1397,23 +1400,21 @@
       <c r="F27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>31</v>
@@ -1421,23 +1422,23 @@
       <c r="F28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>31</v>
@@ -1445,9 +1446,7 @@
       <c r="F29" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1455,13 +1454,13 @@
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>31</v>
@@ -1469,25 +1468,21 @@
       <c r="F30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>31</v>
@@ -1495,9 +1490,7 @@
       <c r="F31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1505,13 +1498,13 @@
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>31</v>
@@ -1519,23 +1512,21 @@
       <c r="F32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>31</v>
@@ -1543,23 +1534,23 @@
       <c r="F33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>31</v>
@@ -1567,23 +1558,21 @@
       <c r="F34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>31</v>
@@ -1591,25 +1580,21 @@
       <c r="F35" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>31</v>
@@ -1617,23 +1602,21 @@
       <c r="F36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>31</v>
@@ -1641,77 +1624,27 @@
       <c r="F37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072FF4B-3230-47CB-BF32-F6172FCE4498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8BE34E-DFDB-47DE-B3CB-5719BFFBCBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="117">
   <si>
     <t>Columna</t>
   </si>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,9 @@
       <c r="F16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="H16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1168,7 +1170,9 @@
       <c r="F17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="H17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1190,7 +1194,9 @@
       <c r="F18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="H18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1214,7 +1220,9 @@
       <c r="F19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="H19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1236,7 +1244,9 @@
       <c r="F20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="H20" s="5" t="s">
         <v>69</v>
       </c>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8BE34E-DFDB-47DE-B3CB-5719BFFBCBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448536FD-FFFB-4DD1-9045-C073D5C5EF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="121">
   <si>
     <t>Columna</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>Realizado</t>
+  </si>
+  <si>
+    <t>Elaboracion de los diagramas de actividades.</t>
+  </si>
+  <si>
+    <t>Diagrama de actividades</t>
+  </si>
+  <si>
+    <t>3 horas</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
   </si>
 </sst>
 </file>
@@ -809,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I41"/>
+  <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,87 +1266,85 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>31</v>
@@ -1344,21 +1354,21 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>31</v>
@@ -1368,19 +1378,21 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>31</v>
@@ -1396,13 +1408,13 @@
     </row>
     <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>31</v>
@@ -1416,15 +1428,15 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>31</v>
@@ -1434,21 +1446,19 @@
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>31</v>
@@ -1458,19 +1468,21 @@
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>31</v>
@@ -1486,13 +1498,13 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>31</v>
@@ -1508,13 +1520,13 @@
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>31</v>
@@ -1524,19 +1536,19 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>97</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>31</v>
@@ -1548,19 +1560,17 @@
       <c r="H33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>31</v>
@@ -1570,19 +1580,21 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>31</v>
@@ -1598,13 +1610,13 @@
     </row>
     <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>31</v>
@@ -1618,15 +1630,15 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>31</v>
@@ -1636,25 +1648,47 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448536FD-FFFB-4DD1-9045-C073D5C5EF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0CEFA-7CAE-4650-B11E-293EF00DFF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
   <si>
     <t>Columna</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>5 horas</t>
   </si>
 </sst>
 </file>
@@ -823,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,9 +1305,11 @@
         <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="H22" s="5" t="s">
         <v>34</v>
       </c>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0CEFA-7CAE-4650-B11E-293EF00DFF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2517208B-992D-4B9E-902D-4A85B7424725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,28 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="113">
   <si>
     <t>Columna</t>
   </si>
@@ -276,33 +289,6 @@
   </si>
   <si>
     <t>Diseñar el esquema de la base de datos según los requisitos del sistema.</t>
-  </si>
-  <si>
-    <t>HT003</t>
-  </si>
-  <si>
-    <t>Como equipo, queremos implementar un sistema de control de versiones (por ejemplo, Git) para gestionar el código fuente y colaborar eficientemente en el desarrollo del proyecto.</t>
-  </si>
-  <si>
-    <t>Implementación de Sistema de Control de Versiones</t>
-  </si>
-  <si>
-    <t>Configurar un repositorio central para el proyecto.</t>
-  </si>
-  <si>
-    <t>Hecho</t>
-  </si>
-  <si>
-    <t>HT004</t>
-  </si>
-  <si>
-    <t>Como arquitectos del sistema, queremos diseñar la arquitectura del sistema para que sea escalable y pueda manejar incrementos en la carga de trabajo.</t>
-  </si>
-  <si>
-    <t>Diseño para Escalabilidad</t>
-  </si>
-  <si>
-    <t>Diseñar la arquitectura del sistema para soportar escalabilidad horizontal y vertical.</t>
   </si>
   <si>
     <t>Sprint 1</t>
@@ -496,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -520,6 +506,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I42"/>
+  <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,19 +871,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>34</v>
@@ -908,19 +895,19 @@
         <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>34</v>
@@ -932,19 +919,19 @@
         <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>34</v>
@@ -956,19 +943,19 @@
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>34</v>
@@ -980,19 +967,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>34</v>
@@ -1004,19 +991,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>34</v>
@@ -1028,19 +1015,19 @@
         <v>43</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F11" s="5">
         <v>4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>34</v>
@@ -1061,10 +1048,10 @@
         <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
@@ -1085,10 +1072,10 @@
         <v>31</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>34</v>
@@ -1109,10 +1096,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>34</v>
@@ -1121,28 +1108,28 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1159,10 +1146,10 @@
         <v>31</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>34</v>
@@ -1183,10 +1170,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>34</v>
@@ -1207,10 +1194,10 @@
         <v>31</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>34</v>
@@ -1233,10 +1220,10 @@
         <v>31</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>34</v>
@@ -1245,46 +1232,46 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>69</v>
@@ -1305,10 +1292,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>34</v>
@@ -1319,181 +1306,173 @@
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="H23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="I26" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
@@ -1503,19 +1482,19 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
@@ -1525,87 +1504,87 @@
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
@@ -1615,19 +1594,19 @@
     </row>
     <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
@@ -1635,65 +1614,43 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="I37" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2517208B-992D-4B9E-902D-4A85B7424725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535EB539-69C8-4BA1-BE5B-4FAE017213B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="118">
   <si>
     <t>Columna</t>
   </si>
@@ -385,6 +385,21 @@
   </si>
   <si>
     <t>5 horas</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder iniciar sesion con mis creedenciales</t>
+  </si>
+  <si>
+    <t>Como un Administrador, necesito poder cerrar sesion de mi cuenta de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciar sesion </t>
+  </si>
+  <si>
+    <t>Cerrar sesion</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
   </si>
 </sst>
 </file>
@@ -811,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I43"/>
+  <dimension ref="B1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,38 +1418,48 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="B28" s="11"/>
       <c r="C28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>31</v>
+        <v>114</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -1450,9 +1475,11 @@
         <v>31</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1472,23 +1499,25 @@
         <v>31</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H30" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>31</v>
@@ -1496,43 +1525,47 @@
       <c r="F31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>88</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>31</v>
@@ -1544,19 +1577,17 @@
       <c r="H33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>31</v>
@@ -1566,19 +1597,21 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>31</v>
@@ -1594,13 +1627,13 @@
     </row>
     <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>31</v>
@@ -1614,15 +1647,15 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>31</v>
@@ -1632,25 +1665,47 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535EB539-69C8-4BA1-BE5B-4FAE017213B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE658A61-048E-44D8-A8F7-552431E592CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="118">
   <si>
     <t>Columna</t>
   </si>
@@ -497,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -506,22 +506,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,28 +855,28 @@
       <c r="B2" s="4"/>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -885,13 +884,13 @@
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -903,19 +902,19 @@
       <c r="H5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F6" s="5">
@@ -927,19 +926,19 @@
       <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="5">
@@ -951,19 +950,19 @@
       <c r="H7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="5">
@@ -975,19 +974,19 @@
       <c r="H8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F9" s="5">
@@ -999,19 +998,19 @@
       <c r="H9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="5">
@@ -1023,19 +1022,19 @@
       <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F11" s="5">
@@ -1047,7 +1046,7 @@
       <c r="H11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -1059,8 +1058,8 @@
       <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
+      <c r="E12" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>87</v>
@@ -1083,8 +1082,8 @@
       <c r="D13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
+      <c r="E13" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>87</v>
@@ -1107,8 +1106,8 @@
       <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
+      <c r="E14" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>87</v>
@@ -1131,8 +1130,8 @@
       <c r="D15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
+      <c r="E15" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>87</v>
@@ -1157,8 +1156,8 @@
       <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>87</v>
@@ -1181,8 +1180,8 @@
       <c r="D17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>87</v>
@@ -1205,8 +1204,8 @@
       <c r="D18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>31</v>
+      <c r="E18" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>87</v>
@@ -1231,8 +1230,8 @@
       <c r="D19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
+      <c r="E19" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>87</v>
@@ -1255,8 +1254,8 @@
       <c r="D20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>31</v>
+      <c r="E20" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>87</v>
@@ -1279,7 +1278,7 @@
       <c r="D21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -1293,21 +1292,21 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>111</v>
@@ -1315,19 +1314,17 @@
       <c r="H22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>31</v>
@@ -1345,13 +1342,13 @@
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>31</v>
@@ -1367,15 +1364,15 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>31</v>
@@ -1387,45 +1384,43 @@
         <v>111</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>87</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -1437,21 +1432,23 @@
       <c r="H27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C28" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>107</v>
+        <v>54</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>117</v>
@@ -1459,17 +1456,17 @@
       <c r="H28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="11"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>31</v>
@@ -1485,54 +1482,54 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>117</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1561,7 +1558,7 @@
       <c r="B33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="5" t="s">

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE658A61-048E-44D8-A8F7-552431E592CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8465E514-1663-4B9D-8F37-0A5FDFA38B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,8 +1492,8 @@
       <c r="D30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>31</v>
+      <c r="E30" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>87</v>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8465E514-1663-4B9D-8F37-0A5FDFA38B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D4C022-0E55-4622-ABAB-6C1C355CC63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="132">
   <si>
     <t>Columna</t>
   </si>
@@ -384,9 +384,6 @@
     <t>Sprint 7</t>
   </si>
   <si>
-    <t>5 horas</t>
-  </si>
-  <si>
     <t>Como un Administrador, necesito poder iniciar sesion con mis creedenciales</t>
   </si>
   <si>
@@ -400,6 +397,51 @@
   </si>
   <si>
     <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>6 horas</t>
+  </si>
+  <si>
+    <t>Restriccion para que no existan usuarios con el mismo rol, excepto el jefe de planta</t>
+  </si>
+  <si>
+    <t>Restriccion de rol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restriccion para que no se repitan las cedulas en mas de un usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restriccion de cedula duplicada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuracion para que el jefe de planta solo pueda contralar sus funciones </t>
+  </si>
+  <si>
+    <t>Configuracion de jefe de planta</t>
+  </si>
+  <si>
+    <t>Como usuario registrado deceo poder restablecer mi contraseña</t>
+  </si>
+  <si>
+    <t>Restablecer contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora </t>
+  </si>
+  <si>
+    <t>Control al momento de crear usuario el nombre y apellido solo puede contener letras</t>
+  </si>
+  <si>
+    <t>Control al momento de crear usuario la contraseña debe tener un minimo de 8 caracteres entre estas debe estar una mayuscula, un numero y un carácter especial.</t>
+  </si>
+  <si>
+    <t>Control en registro nombre</t>
+  </si>
+  <si>
+    <t>Control en  registro contraseña</t>
   </si>
 </sst>
 </file>
@@ -825,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I44"/>
+  <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,10 +1435,10 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>107</v>
@@ -1405,7 +1447,7 @@
         <v>87</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>34</v>
@@ -1415,19 +1457,19 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>34</v>
@@ -1451,7 +1493,7 @@
         <v>110</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>34</v>
@@ -1475,7 +1517,7 @@
         <v>110</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>34</v>
@@ -1499,7 +1541,7 @@
         <v>87</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>69</v>
@@ -1518,13 +1560,15 @@
       <c r="D31" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>31</v>
+      <c r="E31" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1532,177 +1576,309 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>58</v>
-      </c>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>31</v>
+        <v>120</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H32" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>72</v>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>31</v>
+        <v>122</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H33" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>89</v>
-      </c>
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>31</v>
+        <v>124</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H34" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>64</v>
-      </c>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>31</v>
+        <v>130</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H36" s="5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>31</v>
+        <v>131</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H37" s="5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="5"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D4C022-0E55-4622-ABAB-6C1C355CC63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCD343-5C6D-4496-8A1A-97BFD919483E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1487,7 @@
         <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>110</v>
@@ -1511,7 +1511,7 @@
         <v>57</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>110</v>
@@ -1651,7 +1651,7 @@
         <v>126</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>127</v>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCD343-5C6D-4496-8A1A-97BFD919483E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2AAE6E-12E6-496E-ADDB-91F3C6D7B8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="133">
   <si>
     <t>Columna</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>Control en  registro contraseña</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +511,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -562,6 +571,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,13 +1721,13 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -1724,7 +1736,9 @@
       <c r="F38" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="H38" s="5" t="s">
         <v>34</v>
       </c>
@@ -1741,12 +1755,14 @@
         <v>68</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -1763,12 +1779,14 @@
         <v>90</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="H40" s="5" t="s">
         <v>69</v>
       </c>
@@ -1777,13 +1795,13 @@
       </c>
     </row>
     <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -1831,7 +1849,7 @@
         <v>67</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>87</v>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2AAE6E-12E6-496E-ADDB-91F3C6D7B8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D817D4-6895-4326-959B-19EA0816DEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="133">
   <si>
     <t>Columna</t>
   </si>
@@ -228,12 +228,6 @@
     <t>HU013</t>
   </si>
   <si>
-    <t>Como un Jefe de Planta, necesito notificar inconvenientes en la producción, con la finalidad de actualizar el sistema con la cantidad adicional de materia prima utilizada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como un Jefe de Planta, necesito actualizar el inventario en tiempo real tras notificar un inconveniente, con la finalidad de reflejar el uso adicional de materia prima.	</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notificar inconvenientes en producción	</t>
   </si>
   <si>
@@ -445,6 +439,12 @@
   </si>
   <si>
     <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Como un Jefe de Planta, necesito notificar inconvenientes en la producciór.</t>
+  </si>
+  <si>
+    <t>Como un Jefe de Planta, necesito actualizar el inventario en tiempo real.</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,12 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -571,9 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I50"/>
+  <dimension ref="B1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,19 +930,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>34</v>
@@ -963,19 +954,19 @@
         <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>34</v>
@@ -987,19 +978,19 @@
         <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>34</v>
@@ -1011,19 +1002,19 @@
         <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>34</v>
@@ -1035,19 +1026,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>34</v>
@@ -1059,19 +1050,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>34</v>
@@ -1083,19 +1074,19 @@
         <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F11" s="5">
         <v>4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>34</v>
@@ -1113,13 +1104,13 @@
         <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
@@ -1137,13 +1128,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>34</v>
@@ -1161,13 +1152,13 @@
         <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>34</v>
@@ -1176,28 +1167,28 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1211,13 +1202,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>34</v>
@@ -1235,13 +1226,13 @@
         <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>34</v>
@@ -1250,28 +1241,28 @@
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1285,13 +1276,13 @@
         <v>36</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>34</v>
@@ -1300,49 +1291,49 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1360,10 +1351,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>34</v>
@@ -1384,10 +1375,10 @@
         <v>31</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>34</v>
@@ -1408,10 +1399,10 @@
         <v>31</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>34</v>
@@ -1420,46 +1411,46 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>34</v>
@@ -1469,19 +1460,19 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>34</v>
@@ -1499,13 +1490,13 @@
         <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>34</v>
@@ -1523,13 +1514,13 @@
         <v>57</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>34</v>
@@ -1538,72 +1529,72 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="D31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>34</v>
@@ -1613,19 +1604,19 @@
     <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>34</v>
@@ -1635,19 +1626,19 @@
     <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>34</v>
@@ -1657,19 +1648,19 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>34</v>
@@ -1679,65 +1670,65 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>34</v>
@@ -1746,113 +1737,97 @@
     </row>
     <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="C42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="5"/>
     </row>
     <row r="43" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
@@ -1860,43 +1835,87 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D817D4-6895-4326-959B-19EA0816DEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190331B7-A6D3-47A2-8591-9988A416858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -564,6 +564,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -873,7 +876,7 @@
   <dimension ref="B1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1764,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="10"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Proyecto_App_Inf_2\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190331B7-A6D3-47A2-8591-9988A416858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB4D8CF-F140-42C2-A827-061E80A06624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="136">
   <si>
     <t>Columna</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Prediccion de Inventario</t>
   </si>
   <si>
-    <t>Gestion de Produccion Diaria</t>
-  </si>
-  <si>
     <t>Generacion de informes</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Como Gerente, quiero utilizar  predicción para anticipar las necesidades de materia prima y evitar interrupciones en la producción.</t>
   </si>
   <si>
-    <t>Como Gerente, quiero monitorear  el progreso de la producción diaria para asegurarme de que los objetivos de producción se cumplan de manera eficiente.</t>
-  </si>
-  <si>
     <t>Como Gerente, quiero generar informes detallados sobre la producción e inventario para identificar tendencias y hacer ajustes estratégicos.</t>
   </si>
   <si>
@@ -445,6 +439,21 @@
   </si>
   <si>
     <t>Como un Jefe de Planta, necesito actualizar el inventario en tiempo real.</t>
+  </si>
+  <si>
+    <t>Realización de los prototipos del sistema</t>
+  </si>
+  <si>
+    <t>Crear prototipos del sistema</t>
+  </si>
+  <si>
+    <t>1 horas</t>
+  </si>
+  <si>
+    <t>Creación del mapa de navegación</t>
+  </si>
+  <si>
+    <t>Desarrollar el mapa de navegación del sistema</t>
   </si>
 </sst>
 </file>
@@ -875,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="C32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +893,7 @@
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
@@ -933,19 +942,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>34</v>
@@ -957,19 +966,19 @@
         <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>34</v>
@@ -981,19 +990,19 @@
         <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>34</v>
@@ -1005,19 +1014,19 @@
         <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>34</v>
@@ -1029,19 +1038,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>34</v>
@@ -1053,19 +1062,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>34</v>
@@ -1077,19 +1086,19 @@
         <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" s="5">
         <v>4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>34</v>
@@ -1107,13 +1116,13 @@
         <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
@@ -1131,13 +1140,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>34</v>
@@ -1155,13 +1164,13 @@
         <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>34</v>
@@ -1170,28 +1179,28 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1205,13 +1214,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>34</v>
@@ -1229,13 +1238,13 @@
         <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>34</v>
@@ -1244,28 +1253,28 @@
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1279,13 +1288,13 @@
         <v>36</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>34</v>
@@ -1294,49 +1303,49 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1354,10 +1363,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>34</v>
@@ -1378,10 +1387,10 @@
         <v>31</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>34</v>
@@ -1402,10 +1411,10 @@
         <v>31</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>34</v>
@@ -1414,46 +1423,46 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>34</v>
@@ -1463,19 +1472,19 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>34</v>
@@ -1493,13 +1502,13 @@
         <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>34</v>
@@ -1517,13 +1526,13 @@
         <v>57</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>34</v>
@@ -1532,72 +1541,72 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="D31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>34</v>
@@ -1607,19 +1616,19 @@
     <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>34</v>
@@ -1629,19 +1638,19 @@
     <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>34</v>
@@ -1651,19 +1660,19 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>34</v>
@@ -1673,44 +1682,44 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I37" s="5"/>
     </row>
@@ -1719,7 +1728,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>60</v>
@@ -1728,10 +1737,10 @@
         <v>31</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>34</v>
@@ -1743,77 +1752,93 @@
         <v>63</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="C40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="G40" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="G41" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1821,7 +1846,7 @@
         <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>61</v>
@@ -1830,7 +1855,7 @@
         <v>31</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
@@ -1843,7 +1868,7 @@
         <v>62</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>64</v>
@@ -1852,7 +1877,7 @@
         <v>31</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
@@ -1860,50 +1885,38 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>85</v>
-      </c>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB4D8CF-F140-42C2-A827-061E80A06624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E7266-BEF7-4EAA-A180-83A7E86486CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="187">
   <si>
     <t>Columna</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Como Gerente, quiero generar informes detallados sobre la producción e inventario para identificar tendencias y hacer ajustes estratégicos.</t>
   </si>
   <si>
-    <t>HT001</t>
-  </si>
-  <si>
     <t>Modelo de Prediccion</t>
   </si>
   <si>
@@ -454,6 +451,162 @@
   </si>
   <si>
     <t>Desarrollar el mapa de navegación del sistema</t>
+  </si>
+  <si>
+    <t>Investigación de combinaciones de colores</t>
+  </si>
+  <si>
+    <t>Combinaciones de Colores</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
+  </si>
+  <si>
+    <t>Creación de estilos CSS</t>
+  </si>
+  <si>
+    <t>Estilos CSS</t>
+  </si>
+  <si>
+    <t>4 horas</t>
+  </si>
+  <si>
+    <t>Sprint 12</t>
+  </si>
+  <si>
+    <t>Implementación de estilos CSS en componentes</t>
+  </si>
+  <si>
+    <t>CSS en Componentes</t>
+  </si>
+  <si>
+    <t>Como Desarrollador, necesito corregir los fallos reportados en el sistema.</t>
+  </si>
+  <si>
+    <t>Corrección de Fallos</t>
+  </si>
+  <si>
+    <t>Arreglo del Modelo Predictivo</t>
+  </si>
+  <si>
+    <t>Como Gerente, quiero que el modelo predictivo funcione correctamente.</t>
+  </si>
+  <si>
+    <t>Como Usuario, quiero una mejor interfaz de usuario para una mejor experiencia.</t>
+  </si>
+  <si>
+    <t>Mejora de Interfaces</t>
+  </si>
+  <si>
+    <t>Como Usuario, quiero ver una página de error si el servidor se cae.</t>
+  </si>
+  <si>
+    <t>Manejo de Errores del Servidor</t>
+  </si>
+  <si>
+    <t>Como Usuario, quiero que las páginas con muchos datos se paginen.</t>
+  </si>
+  <si>
+    <t>Paginación de Datos</t>
+  </si>
+  <si>
+    <t>Como Usuario, quiero que las tablas estén ordenadas según mi preferencia</t>
+  </si>
+  <si>
+    <t>Ordenamiento</t>
+  </si>
+  <si>
+    <t>Como Usuario, quiero que el tipo de letra sea diferente al predeterminado.</t>
+  </si>
+  <si>
+    <t>Cambio del Tipo de Letra</t>
+  </si>
+  <si>
+    <t>Como Usuario, quiero poder recuperar mi contraseña sin problemas.</t>
+  </si>
+  <si>
+    <t>Arreglo de Recuperación de Contraseña</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>HU016</t>
+  </si>
+  <si>
+    <t>HU017</t>
+  </si>
+  <si>
+    <t>HU018</t>
+  </si>
+  <si>
+    <t>HU019</t>
+  </si>
+  <si>
+    <t>HU020</t>
+  </si>
+  <si>
+    <t>HU021</t>
+  </si>
+  <si>
+    <t>HU022</t>
+  </si>
+  <si>
+    <t>HU023</t>
+  </si>
+  <si>
+    <t>HU024</t>
+  </si>
+  <si>
+    <t>HU025</t>
+  </si>
+  <si>
+    <t>HU026</t>
+  </si>
+  <si>
+    <t>HU027</t>
+  </si>
+  <si>
+    <t>HU028</t>
+  </si>
+  <si>
+    <t>HU029</t>
+  </si>
+  <si>
+    <t>HU030</t>
+  </si>
+  <si>
+    <t>HU031</t>
+  </si>
+  <si>
+    <t>HU032</t>
+  </si>
+  <si>
+    <t>HU033</t>
+  </si>
+  <si>
+    <t>HU034</t>
+  </si>
+  <si>
+    <t>HU035</t>
+  </si>
+  <si>
+    <t>HU036</t>
+  </si>
+  <si>
+    <t>HU037</t>
+  </si>
+  <si>
+    <t>HU038</t>
+  </si>
+  <si>
+    <t>HU039</t>
+  </si>
+  <si>
+    <t>HU040</t>
+  </si>
+  <si>
+    <t>HU041</t>
   </si>
 </sst>
 </file>
@@ -551,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -578,6 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I52"/>
+  <dimension ref="B1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,19 +1096,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>34</v>
@@ -966,19 +1120,19 @@
         <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>34</v>
@@ -990,19 +1144,19 @@
         <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>34</v>
@@ -1014,19 +1168,19 @@
         <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>34</v>
@@ -1038,19 +1192,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>34</v>
@@ -1062,19 +1216,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>34</v>
@@ -1086,19 +1240,19 @@
         <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="5">
         <v>4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>34</v>
@@ -1116,13 +1270,13 @@
         <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
@@ -1140,13 +1294,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>34</v>
@@ -1164,13 +1318,13 @@
         <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>34</v>
@@ -1179,33 +1333,33 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>29</v>
@@ -1214,13 +1368,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>34</v>
@@ -1229,7 +1383,7 @@
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>32</v>
@@ -1238,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>34</v>
@@ -1253,33 +1407,33 @@
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>35</v>
@@ -1288,13 +1442,13 @@
         <v>36</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>34</v>
@@ -1303,46 +1457,48 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>66</v>
@@ -1351,7 +1507,7 @@
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>46</v>
@@ -1363,10 +1519,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>34</v>
@@ -1375,7 +1531,7 @@
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>48</v>
@@ -1387,10 +1543,10 @@
         <v>31</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>34</v>
@@ -1399,7 +1555,7 @@
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>50</v>
@@ -1411,10 +1567,10 @@
         <v>31</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>34</v>
@@ -1423,68 +1579,72 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>34</v>
@@ -1493,7 +1653,7 @@
     </row>
     <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>54</v>
@@ -1502,13 +1662,13 @@
         <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>34</v>
@@ -1517,7 +1677,7 @@
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>56</v>
@@ -1526,13 +1686,13 @@
         <v>57</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>34</v>
@@ -1541,160 +1701,170 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="E31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="5" t="s">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>66</v>
@@ -1702,33 +1872,35 @@
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="C37" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>60</v>
@@ -1737,10 +1909,10 @@
         <v>31</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>34</v>
@@ -1749,7 +1921,7 @@
     </row>
     <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>68</v>
@@ -1758,13 +1930,13 @@
         <v>65</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>66</v>
@@ -1772,21 +1944,23 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="C40" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
         <v>131</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="G40" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>66</v>
@@ -1794,21 +1968,23 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" t="s">
         <v>134</v>
       </c>
-      <c r="D41" t="s">
-        <v>135</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>66</v>
@@ -1817,36 +1993,36 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>61</v>
@@ -1855,7 +2031,7 @@
         <v>31</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
@@ -1865,7 +2041,7 @@
     </row>
     <row r="44" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>67</v>
@@ -1877,7 +2053,7 @@
         <v>31</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
@@ -1886,52 +2062,332 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>86</v>
+        <v>177</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="H46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" s="5"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Documentacion/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof\OneDrive\Documents\GitHub\Proyecto_App_Inf_2\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E7266-BEF7-4EAA-A180-83A7E86486CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B7104E-A748-4F0D-AB4C-159E5B83047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="205">
   <si>
     <t>Columna</t>
   </si>
@@ -231,9 +231,6 @@
     <t xml:space="preserve">Notificar inconvenientes en producción	</t>
   </si>
   <si>
-    <t xml:space="preserve">Actualizar inventario tras notificación	</t>
-  </si>
-  <si>
     <t>HU014</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>Documentacion</t>
   </si>
   <si>
-    <t>HT00</t>
-  </si>
-  <si>
     <t>Documentar</t>
   </si>
   <si>
@@ -435,9 +429,6 @@
     <t>Como un Jefe de Planta, necesito notificar inconvenientes en la producciór.</t>
   </si>
   <si>
-    <t>Como un Jefe de Planta, necesito actualizar el inventario en tiempo real.</t>
-  </si>
-  <si>
     <t>Realización de los prototipos del sistema</t>
   </si>
   <si>
@@ -537,9 +528,6 @@
     <t>HU017</t>
   </si>
   <si>
-    <t>HU018</t>
-  </si>
-  <si>
     <t>HU019</t>
   </si>
   <si>
@@ -570,9 +558,6 @@
     <t>HU028</t>
   </si>
   <si>
-    <t>HU029</t>
-  </si>
-  <si>
     <t>HU030</t>
   </si>
   <si>
@@ -607,6 +592,75 @@
   </si>
   <si>
     <t>HU041</t>
+  </si>
+  <si>
+    <t>HU042</t>
+  </si>
+  <si>
+    <t>HU043</t>
+  </si>
+  <si>
+    <t>HU044</t>
+  </si>
+  <si>
+    <t>HU045</t>
+  </si>
+  <si>
+    <t>Como Usuario, quiero tener ayudas implementadas en la interfaz para facilitar su uso.</t>
+  </si>
+  <si>
+    <t>Como Usuario, quiero ver la hora y el clima actual en la aplicación.</t>
+  </si>
+  <si>
+    <t>Como Gerente, quiero un dashboard para visualizar mejor los datos de producción.</t>
+  </si>
+  <si>
+    <t>Como Usuario, quiero una interfaz de usuario mejorada para una mejor experiencia.</t>
+  </si>
+  <si>
+    <t>Ayudas para el Usuario</t>
+  </si>
+  <si>
+    <t>Widgets de Reloj y Clima</t>
+  </si>
+  <si>
+    <t>Implementación de Dashboard</t>
+  </si>
+  <si>
+    <t>Mejoras en la Interfaz</t>
+  </si>
+  <si>
+    <t>5 horas</t>
+  </si>
+  <si>
+    <t>Sprint 13</t>
+  </si>
+  <si>
+    <t>HT001</t>
+  </si>
+  <si>
+    <t>HT003</t>
+  </si>
+  <si>
+    <t>HT004</t>
+  </si>
+  <si>
+    <t>HT005</t>
+  </si>
+  <si>
+    <t>HT006</t>
+  </si>
+  <si>
+    <t>HT007</t>
+  </si>
+  <si>
+    <t>HT008</t>
+  </si>
+  <si>
+    <t>HT009</t>
+  </si>
+  <si>
+    <t>HT010</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I63"/>
+  <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,19 +1150,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>34</v>
@@ -1120,19 +1174,19 @@
         <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>34</v>
@@ -1144,19 +1198,19 @@
         <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>34</v>
@@ -1168,19 +1222,19 @@
         <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>34</v>
@@ -1192,19 +1246,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>34</v>
@@ -1216,19 +1270,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>34</v>
@@ -1240,19 +1294,19 @@
         <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="5">
         <v>4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>34</v>
@@ -1270,13 +1324,13 @@
         <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>34</v>
@@ -1294,13 +1348,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>34</v>
@@ -1318,13 +1372,13 @@
         <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>34</v>
@@ -1333,28 +1387,28 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1368,13 +1422,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>34</v>
@@ -1392,13 +1446,13 @@
         <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>34</v>
@@ -1407,28 +1461,28 @@
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1442,13 +1496,13 @@
         <v>36</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>34</v>
@@ -1457,28 +1511,28 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1486,22 +1540,22 @@
         <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1519,10 +1573,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>34</v>
@@ -1543,10 +1597,10 @@
         <v>31</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>34</v>
@@ -1567,10 +1621,10 @@
         <v>31</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>34</v>
@@ -1579,48 +1633,48 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>34</v>
@@ -1629,22 +1683,22 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>34</v>
@@ -1653,7 +1707,7 @@
     </row>
     <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>54</v>
@@ -1662,13 +1716,13 @@
         <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>34</v>
@@ -1677,7 +1731,7 @@
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>56</v>
@@ -1686,13 +1740,13 @@
         <v>57</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>34</v>
@@ -1701,74 +1755,74 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>34</v>
@@ -1777,22 +1831,22 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>34</v>
@@ -1801,22 +1855,22 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>34</v>
@@ -1825,22 +1879,22 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>34</v>
@@ -1849,58 +1903,58 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>60</v>
@@ -1909,10 +1963,10 @@
         <v>31</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>34</v>
@@ -1921,117 +1975,117 @@
     </row>
     <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="5" t="s">
+    </row>
+    <row r="43" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="D43" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
@@ -2039,31 +2093,33 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>64</v>
+        <v>171</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="H44" s="5" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>135</v>
@@ -2072,109 +2128,111 @@
         <v>136</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>140</v>
+        <v>100</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="E48" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="G48" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="5"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>34</v>
@@ -2183,211 +2241,309 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>146</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>34</v>
+        <v>138</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>66</v>
+        <v>138</v>
+      </c>
+      <c r="H51" t="s">
+        <v>34</v>
       </c>
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C52" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>151</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H52" t="s">
-        <v>34</v>
+        <v>138</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C53" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C54" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="E54" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C55" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="E55" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>160</v>
+        <v>138</v>
+      </c>
+      <c r="H55" t="s">
+        <v>34</v>
       </c>
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>159</v>
+        <v>203</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H56" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E61" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
